--- a/heydude_master/heydude/bin/Debug/output.xlsx
+++ b/heydude_master/heydude/bin/Debug/output.xlsx
@@ -148,17 +148,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFB6C1" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF90EE90" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB6C1" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -234,10 +234,10 @@
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -248,7 +248,7 @@
       <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -257,50 +257,50 @@
       <c r="E3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -311,7 +311,7 @@
       <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -320,10 +320,10 @@
       <c r="E6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
